--- a/Error and message Table.xlsx
+++ b/Error and message Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2015-1\SW En\ProjectCPEform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\คุณจริยา ศรีเอี่ยม\Desktop\FormCPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Error Tabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -63,8 +135,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,18 +426,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Error and message Table.xlsx
+++ b/Error and message Table.xlsx
@@ -24,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Error Tabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID </t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>Detail</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>01</t>
   </si>
@@ -99,13 +87,28 @@
   </si>
   <si>
     <t>21</t>
+  </si>
+  <si>
+    <t>รายละเอียด</t>
+  </si>
+  <si>
+    <t>ชื่อโครงงานภาษาไทยใส่เป็นภาษาอังกฤษได้</t>
+  </si>
+  <si>
+    <t>ชื่อโครงงานภาษาอังกฤษใส่เป็นภาษาไทยได้</t>
+  </si>
+  <si>
+    <t>ชื่อโครงงานภาษาไทยซ้ำกันได้ ทำให้ข้อมูลขัดแย้ง</t>
+  </si>
+  <si>
+    <t>Error code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,16 +117,51 @@
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,20 +169,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -152,6 +228,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -426,145 +508,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B6" s="3"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B7" s="3"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B8" s="3"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B9" s="3"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B10" s="3"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B11" s="3"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="B12" s="3"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="B13" s="3"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B14" s="3"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="B15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B16" s="3"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="B17" s="3"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="B18" s="3"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="B19" s="3"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="B20" s="3"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B21" s="3"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="B22" s="3"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>